--- a/compare/Compare.xlsx
+++ b/compare/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baral\PycharmProjects\ReinforcementLearning\BlackJack\compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF53872E-4512-4202-834E-B05711E82F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CBE89-09DF-4020-A8AD-34BBE2294029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -122,6 +125,1554 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10529134381632006"/>
+          <c:y val="0.12021240150736553"/>
+          <c:w val="0.87643015834386606"/>
+          <c:h val="0.64245143817454475"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Rand </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-4489.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4754.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4579.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4601.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4673.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCFD-4920-A806-952D648E5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Basic </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-131.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-149.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCFD-4920-A806-952D648E5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Expectancy  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-151.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-252.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-113.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCFD-4920-A806-952D648E5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> QLearning1Step  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1435.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCFD-4920-A806-952D648E5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> QLearningDecayStep  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3591.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1673.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FCFD-4920-A806-952D648E5634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="20223231"/>
+        <c:axId val="166484543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20223231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of training rounds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166484543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166484543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score for 1000 games</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20223231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15819562310443996"/>
+          <c:y val="0.8685508735868448"/>
+          <c:w val="0.71684238622714536"/>
+          <c:h val="5.7811298767510184E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F978E57-2CF1-F9D6-62FF-99AA99DCB177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,210 +1938,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E1" s="1">
+        <f>D1*10</f>
+        <v>100000</v>
+      </c>
+      <c r="F1" s="1">
+        <f>E1*10</f>
+        <v>1000000</v>
+      </c>
+      <c r="G1" s="1">
+        <f>F1*10</f>
+        <v>10000000</v>
+      </c>
+      <c r="H1" s="1">
+        <f>G1*10</f>
+        <v>100000000</v>
+      </c>
+      <c r="I1" s="1">
+        <f>H1*10</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-4489.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-4754.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-4579.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-4601.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-4718</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-4548</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-4673.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-4575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4489.5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B3" s="1">
         <v>106</v>
-      </c>
-      <c r="D2" s="1">
-        <v>161</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1435.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-4754.5</v>
       </c>
       <c r="C3" s="1">
         <v>110</v>
       </c>
       <c r="D3" s="1">
+        <v>-7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-131.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-149.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1">
         <v>-151.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1690</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-4138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-4579.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-7</v>
       </c>
       <c r="D4" s="1">
         <v>64</v>
       </c>
       <c r="E4" s="1">
+        <v>156</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-96</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-252.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-94</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-113.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1435.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1690</v>
+      </c>
+      <c r="D5" s="1">
         <v>-1736</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-3591.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f>A4*10</f>
-        <v>100000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-4601.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1">
-        <v>156</v>
       </c>
       <c r="E5" s="1">
         <v>-1464</v>
       </c>
       <c r="F5" s="1">
+        <v>-1460</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1442</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1278</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-5000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-4138</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-3591.5</v>
+      </c>
+      <c r="E6" s="1">
         <v>-3057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" ref="A6:A9" si="0">A5*10</f>
-        <v>1000000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-4718</v>
-      </c>
-      <c r="C6" s="1">
-        <v>113</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-96</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-1460</v>
       </c>
       <c r="F6" s="1">
         <v>-1804</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>10000000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-4548</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-131.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-252.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-1442</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G6" s="1">
         <v>-1651</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>100000000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4673.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-94</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-1278</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="H6" s="1">
         <v>-1889</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>1000000000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-4575</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-149.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-113.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-1314</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="I6" s="1">
         <v>-1673.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/compare/Compare.xlsx
+++ b/compare/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baral\PycharmProjects\ReinforcementLearning\BlackJack\compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CBE89-09DF-4020-A8AD-34BBE2294029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694E883-A2EC-482F-97C7-740BB741066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -142,6 +142,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>STRATEGY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> COMPARISON </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -228,10 +258,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$I$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -249,22 +286,23 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$I$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-4489.5</c:v>
                 </c:pt>
@@ -282,12 +320,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-4548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4673.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,10 +372,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$I$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -361,22 +400,23 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$3:$I$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>106</c:v>
                 </c:pt>
@@ -394,12 +434,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-131.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-149.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,10 +486,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$I$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -473,22 +514,23 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$4:$I$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -506,12 +548,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-252.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-113.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,10 +598,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$I$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -583,45 +626,40 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$5:$I$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1435.5</c:v>
+                  <c:v>-1697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1690</c:v>
+                  <c:v>-1983.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1736</c:v>
+                  <c:v>-1999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1464</c:v>
+                  <c:v>-1061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1460</c:v>
+                  <c:v>-1207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1314</c:v>
+                  <c:v>-1014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,10 +710,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$I$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -693,45 +738,40 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$6:$I$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-5000</c:v>
+                  <c:v>-1511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4138</c:v>
+                  <c:v>-1957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3591.5</c:v>
+                  <c:v>-1844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3057</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1804</c:v>
+                  <c:v>-1084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1651</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1889</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1673.5</c:v>
+                  <c:v>-941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +784,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1938,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,7 +2003,7 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1989,16 +2028,8 @@
         <f>F1*10</f>
         <v>10000000</v>
       </c>
-      <c r="H1" s="1">
-        <f>G1*10</f>
-        <v>100000000</v>
-      </c>
-      <c r="I1" s="1">
-        <f>H1*10</f>
-        <v>1000000000</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,14 +2051,8 @@
       <c r="G2" s="1">
         <v>-4548</v>
       </c>
-      <c r="H2" s="1">
-        <v>-4673.5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-4575</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,14 +2074,8 @@
       <c r="G3" s="1">
         <v>-131.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-149.5</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2078,69 +2097,51 @@
       <c r="G4" s="1">
         <v>-252.5</v>
       </c>
-      <c r="H4" s="1">
-        <v>-94</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-113.5</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>-1435.5</v>
+        <v>-1697</v>
       </c>
       <c r="C5" s="1">
-        <v>-1690</v>
+        <v>-1983.5</v>
       </c>
       <c r="D5" s="1">
-        <v>-1736</v>
+        <v>-1999</v>
       </c>
       <c r="E5" s="1">
-        <v>-1464</v>
+        <v>-1061</v>
       </c>
       <c r="F5" s="1">
-        <v>-1460</v>
+        <v>-1207</v>
       </c>
       <c r="G5" s="1">
-        <v>-1442</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-1278</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-1314</v>
+        <v>-1014</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-5000</v>
+        <v>-1511</v>
       </c>
       <c r="C6" s="1">
-        <v>-4138</v>
+        <v>-1957</v>
       </c>
       <c r="D6" s="1">
-        <v>-3591.5</v>
+        <v>-1844</v>
       </c>
       <c r="E6" s="1">
-        <v>-3057</v>
+        <v>-1000</v>
       </c>
       <c r="F6" s="1">
-        <v>-1804</v>
+        <v>-1084</v>
       </c>
       <c r="G6" s="1">
-        <v>-1651</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-1889</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-1673.5</v>
+        <v>-941</v>
       </c>
     </row>
   </sheetData>
